--- a/Project3/Docs/p3 tables.xlsx
+++ b/Project3/Docs/p3 tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5140" yWindow="0" windowWidth="25360" windowHeight="14000" tabRatio="500"/>
+    <workbookView xWindow="10680" yWindow="0" windowWidth="25360" windowHeight="13860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -19,48 +19,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Std Dev</t>
+  </si>
+  <si>
+    <t>Pr &gt; |t|</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>&lt;.0001</t>
+  </si>
+  <si>
+    <t>SES</t>
+  </si>
+  <si>
+    <t>Gender- Male</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Average Visits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animal Score </t>
+  </si>
+  <si>
+    <t>n=56</t>
+  </si>
+  <si>
+    <t>n=20</t>
+  </si>
   <si>
     <t>No MCI
-n=145</t>
+n=119</t>
   </si>
   <si>
     <t>MCI/Dementia
-n=71</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Std Dev</t>
-  </si>
-  <si>
-    <t>Pr &gt; |t|</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>&lt;.0001</t>
-  </si>
-  <si>
-    <t>SES</t>
-  </si>
-  <si>
-    <t>Gender- Male</t>
-  </si>
-  <si>
-    <t>Variable</t>
-  </si>
-  <si>
-    <t>Age Onset</t>
+n=68</t>
+  </si>
+  <si>
+    <t>Five years</t>
+  </si>
+  <si>
+    <t>Age MCI Onset</t>
+  </si>
+  <si>
+    <t>First visit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   &lt;.0001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -90,6 +111,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -99,7 +139,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -122,24 +162,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -151,12 +211,56 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -486,126 +590,320 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G6"/>
+  <dimension ref="B1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G14" sqref="B1:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="31" customHeight="1">
-      <c r="C1" s="4" t="s">
+    <row r="1" spans="2:14" ht="31" customHeight="1">
+      <c r="B1" s="2"/>
+      <c r="C1" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="20"/>
+      <c r="G1" s="2"/>
+      <c r="J1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="10"/>
+      <c r="L1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="10"/>
+    </row>
+    <row r="2" spans="2:14" ht="31" customHeight="1">
+      <c r="B2" s="2"/>
+      <c r="C2" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="2"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="2:14">
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" spans="2:7">
-      <c r="B2" s="2" t="s">
+      <c r="E3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14">
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="14">
+        <v>84.838655500000002</v>
+      </c>
+      <c r="D4" s="14">
+        <v>9.6218511000000007</v>
+      </c>
+      <c r="E4" s="14">
+        <v>93.563235300000002</v>
+      </c>
+      <c r="F4" s="14">
+        <v>6.2075760999999998</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="15">
+        <v>49.655462200000002</v>
+      </c>
+      <c r="D5" s="15">
+        <v>10.856097999999999</v>
+      </c>
+      <c r="E5" s="15">
+        <v>48.735294099999997</v>
+      </c>
+      <c r="F5" s="15">
+        <v>13.0688391</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14">
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="15">
+        <v>59</v>
+      </c>
+      <c r="D6" s="15">
+        <v>49.58</v>
+      </c>
+      <c r="E6" s="15">
+        <v>23</v>
+      </c>
+      <c r="F6" s="15">
+        <v>66.180000000000007</v>
+      </c>
+      <c r="G6" s="23">
+        <v>3.6700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="14">
+        <v>90.539705900000001</v>
+      </c>
+      <c r="F7" s="14">
+        <v>4.8734168000000002</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="2:14">
+      <c r="B8" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="16">
+        <v>10.74</v>
+      </c>
+      <c r="D8" s="2">
+        <v>7.18</v>
+      </c>
+      <c r="E8" s="6">
+        <v>10.96</v>
+      </c>
+      <c r="F8" s="6">
+        <v>6.76</v>
+      </c>
+      <c r="G8" s="23">
+        <v>0.40710000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="2"/>
+      <c r="C9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="23"/>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C10" s="16">
+        <v>15.89</v>
+      </c>
+      <c r="D10" s="16">
+        <v>5.47</v>
+      </c>
+      <c r="E10" s="16">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="F10" s="18">
+        <v>5</v>
+      </c>
+      <c r="G10" s="23"/>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11" s="2"/>
+      <c r="C11" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="23"/>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="C12" s="16">
+        <v>78.61</v>
+      </c>
+      <c r="D12" s="16">
+        <v>8.84</v>
+      </c>
+      <c r="E12" s="16">
+        <v>86.45</v>
+      </c>
+      <c r="F12" s="16">
+        <v>5.9</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
-      <c r="B3" s="2" t="s">
+    <row r="13" spans="2:14">
+      <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6">
-        <v>77.724137900000002</v>
-      </c>
-      <c r="D3" s="6">
-        <v>9.6171524999999995</v>
-      </c>
-      <c r="E3" s="6">
-        <v>84.797183099999998</v>
-      </c>
-      <c r="F3" s="6">
-        <v>6.0723018</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="C13" s="16">
+        <v>49.65</v>
+      </c>
+      <c r="D13" s="16">
+        <v>10.86</v>
+      </c>
+      <c r="E13" s="16">
+        <v>48.73</v>
+      </c>
+      <c r="F13" s="16">
+        <v>13.06</v>
+      </c>
+      <c r="G13" s="23">
+        <v>0.60570000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="B14" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="B4" s="2" t="s">
+      <c r="C14" s="8">
+        <v>59</v>
+      </c>
+      <c r="D14" s="8">
+        <v>49.58</v>
+      </c>
+      <c r="E14" s="7">
+        <v>23</v>
+      </c>
+      <c r="F14" s="8">
+        <v>33.82</v>
+      </c>
+      <c r="G14" s="23">
+        <v>3.6700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="G15" s="24"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="C22" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6">
-        <v>90.7</v>
-      </c>
-      <c r="F4" s="6">
-        <v>4.93</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="7">
-        <v>49.1458333</v>
-      </c>
-      <c r="D5" s="7">
-        <v>10.856960000000001</v>
-      </c>
-      <c r="E5" s="7">
-        <v>49.014000000000003</v>
-      </c>
-      <c r="F5" s="7">
-        <v>12.88907</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="9">
-        <v>67</v>
-      </c>
-      <c r="D6" s="9">
-        <v>46.21</v>
-      </c>
-      <c r="E6" s="8">
-        <v>24</v>
-      </c>
-      <c r="F6" s="9">
-        <v>33.799999999999997</v>
-      </c>
-      <c r="G6" s="9">
-        <v>8.2900000000000001E-2</v>
-      </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="12">
+        <v>15.89</v>
+      </c>
+      <c r="D23" s="12">
+        <v>5.47</v>
+      </c>
+      <c r="E23" s="12">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="F23" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="8">
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="C2:F2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
